--- a/data/trans_dic/P36BPD07_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD07_R-Habitat-trans_dic.xlsx
@@ -609,22 +609,22 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.8954073111662526</v>
+        <v>0.1045926888337474</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.749463599526216</v>
+        <v>0.2505364004737839</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.896974253406408</v>
+        <v>0.103025746593592</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.801225639876829</v>
+        <v>0.198774360123171</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>0.896188991627259</v>
+        <v>0.103811008372741</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.7761371066824118</v>
+        <v>0.2238628933175881</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8723392916802095</v>
+        <v>0.07854321882397571</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7090868001400962</v>
+        <v>0.216639835899342</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.872210782589585</v>
+        <v>0.08088187908580478</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.771544660687091</v>
+        <v>0.1752947151279058</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.8777673530474639</v>
+        <v>0.08800671553388699</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.7534928420583706</v>
+        <v>0.2024501011905036</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.921456781176024</v>
+        <v>0.1276607083197904</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7833601641006581</v>
+        <v>0.290913199859904</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9191181209141951</v>
+        <v>0.1277892174104151</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8247052848720943</v>
+        <v>0.2284553393129089</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9119932844661134</v>
+        <v>0.1222326469525361</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7975498988094963</v>
+        <v>0.2465071579416294</v>
       </c>
     </row>
     <row r="7">
@@ -691,22 +691,22 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.8279675757926344</v>
+        <v>0.1720324242073656</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.6720496872675871</v>
+        <v>0.3279503127324128</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.8671760914285122</v>
+        <v>0.1328239085714879</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.7203189460817908</v>
+        <v>0.2796810539182091</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.8477996821797044</v>
+        <v>0.1522003178202956</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.6964270429987905</v>
+        <v>0.3035729570012094</v>
       </c>
     </row>
     <row r="8">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8036666561665616</v>
+        <v>0.149600157116195</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6429709570126392</v>
+        <v>0.2905630930602925</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8444669751028786</v>
+        <v>0.1120719477190296</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6930587385753501</v>
+        <v>0.2558961319379084</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8325859938326386</v>
+        <v>0.1345736538575171</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6748213105938246</v>
+        <v>0.2822811086030594</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.850399842883805</v>
+        <v>0.1963333438334384</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7094369069397075</v>
+        <v>0.3570290429873606</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8879280522809703</v>
+        <v>0.1555330248971214</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7441038680620912</v>
+        <v>0.3069412614246501</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8654263461424829</v>
+        <v>0.1674140061673617</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7177188913969406</v>
+        <v>0.3251786894061754</v>
       </c>
     </row>
     <row r="10">
@@ -773,22 +773,22 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.8252732700639472</v>
+        <v>0.1747267299360527</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.7593983683787104</v>
+        <v>0.2406016316212895</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8280957775855752</v>
+        <v>0.1719042224144249</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.7869745101651456</v>
+        <v>0.2130254898348543</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.8267040949791177</v>
+        <v>0.1732959050208824</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.7732648460652247</v>
+        <v>0.2267351539347753</v>
       </c>
     </row>
     <row r="11">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7939896013766786</v>
+        <v>0.1471729149113669</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7235674507494417</v>
+        <v>0.2081300286608088</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8007553040662531</v>
+        <v>0.1457824285578764</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7554867349858762</v>
+        <v>0.1864271006385394</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8043983635568078</v>
+        <v>0.1541970918596428</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7509900631385924</v>
+        <v>0.2039284115152481</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8528270850886333</v>
+        <v>0.2060103986233214</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7918699713391915</v>
+        <v>0.2764325492505583</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8542175714421237</v>
+        <v>0.1992446959337471</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8135728993614607</v>
+        <v>0.2445132650141238</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8458029081403574</v>
+        <v>0.1956016364431924</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7960715884847516</v>
+        <v>0.2490099368614068</v>
       </c>
     </row>
     <row r="13">
@@ -855,22 +855,22 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.8392120040871198</v>
+        <v>0.1607879959128801</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.6992032291098935</v>
+        <v>0.3007967708901064</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8777352401983481</v>
+        <v>0.1222647598016518</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.7613461657900084</v>
+        <v>0.2386538342099916</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.8595456526821694</v>
+        <v>0.1404543473178306</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.7321427560862106</v>
+        <v>0.2678572439137894</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8135334644785454</v>
+        <v>0.1376514232234942</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6624287754032434</v>
+        <v>0.271183120833891</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8553654067312978</v>
+        <v>0.1031304695007545</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7365502969380868</v>
+        <v>0.2143283478785646</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8418235716168583</v>
+        <v>0.1260748524341096</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.7125145184281158</v>
+        <v>0.2473680599030617</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8623485767765058</v>
+        <v>0.1864665355214546</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.728816879166109</v>
+        <v>0.3375712245967565</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8968695304992456</v>
+        <v>0.1446345932687023</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7856716521214355</v>
+        <v>0.2634497030619133</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8739251475658905</v>
+        <v>0.1581764283831415</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7526319400969385</v>
+        <v>0.2874854815718836</v>
       </c>
     </row>
     <row r="16">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.8438791997723469</v>
+        <v>0.1561208002276531</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.7146499039022403</v>
+        <v>0.2853500960977597</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.8673042737394177</v>
+        <v>0.1326957262605824</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.7629927594309129</v>
+        <v>0.2370072405690868</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.8558485756066168</v>
+        <v>0.1441514243933832</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.7394888494351726</v>
+        <v>0.2605111505648273</v>
       </c>
     </row>
     <row r="17">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8300347387695119</v>
+        <v>0.1441984319328135</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6966597060309331</v>
+        <v>0.2683177184577972</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8546303683740382</v>
+        <v>0.1218555774801523</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.7501236290674956</v>
+        <v>0.2236564150196443</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8468002539047055</v>
+        <v>0.135277739442386</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.7287051586462991</v>
+        <v>0.2498869857498086</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8558015680671867</v>
+        <v>0.1699652612304881</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7316822815422028</v>
+        <v>0.3033402939690669</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8781444225198477</v>
+        <v>0.1453696316259617</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7763435849803556</v>
+        <v>0.2498763709325044</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.864722260557614</v>
+        <v>0.1531997460952944</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7501130142501912</v>
+        <v>0.2712948413537006</v>
       </c>
     </row>
     <row r="19">
@@ -1139,22 +1139,22 @@
         </is>
       </c>
       <c r="C4" s="6" t="n">
-        <v>583</v>
+        <v>66</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>567</v>
+        <v>161</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>593</v>
+        <v>69</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>1034</v>
+        <v>203</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>1176</v>
+        <v>135</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>1601</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5">
@@ -1165,22 +1165,22 @@
         </is>
       </c>
       <c r="C5" s="6" t="n">
-        <v>601181</v>
+        <v>70224</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>516047</v>
+        <v>172508</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>599486</v>
+        <v>68857</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>586541</v>
+        <v>145514</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>1200667</v>
+        <v>139081</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>1102588</v>
+        <v>318022</v>
       </c>
     </row>
     <row r="6">
@@ -1191,22 +1191,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>585693</v>
+        <v>52734</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>488245</v>
+        <v>149168</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>582936</v>
+        <v>54057</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>564813</v>
+        <v>128325</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1175987</v>
+        <v>117907</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1070419</v>
+        <v>287603</v>
       </c>
     </row>
     <row r="7">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>618671</v>
+        <v>85712</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>539387</v>
+        <v>200310</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>614286</v>
+        <v>85407</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>603730</v>
+        <v>167242</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>1221841</v>
+        <v>163761</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1133007</v>
+        <v>350191</v>
       </c>
     </row>
     <row r="8">
@@ -1247,22 +1247,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>787</v>
+        <v>161</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>665</v>
+        <v>298</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>841</v>
+        <v>136</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>1137</v>
+        <v>377</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>1628</v>
+        <v>297</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>1802</v>
+        <v>675</v>
       </c>
     </row>
     <row r="9">
@@ -1273,22 +1273,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>843657</v>
+        <v>175292</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>704343</v>
+        <v>343709</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>904389</v>
+        <v>138524</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>770271</v>
+        <v>299076</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1748046</v>
+        <v>313816</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1474615</v>
+        <v>642785</v>
       </c>
     </row>
     <row r="10">
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>818895</v>
+        <v>152435</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>673867</v>
+        <v>304525</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>880706</v>
+        <v>116881</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>741120</v>
+        <v>273642</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1716677</v>
+        <v>277472</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1428867</v>
+        <v>597702</v>
       </c>
     </row>
     <row r="11">
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>866514</v>
+        <v>200054</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>743527</v>
+        <v>374185</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>926032</v>
+        <v>162207</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>795705</v>
+        <v>328227</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1784390</v>
+        <v>345185</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1519698</v>
+        <v>688533</v>
       </c>
     </row>
     <row r="12">
@@ -1355,22 +1355,22 @@
         </is>
       </c>
       <c r="C12" s="6" t="n">
-        <v>571</v>
+        <v>122</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>513</v>
+        <v>163</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>597</v>
+        <v>132</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>845</v>
+        <v>202</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1168</v>
+        <v>254</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1358</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13">
@@ -1381,22 +1381,22 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>623967</v>
+        <v>132106</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>609852</v>
+        <v>193221</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>643710</v>
+        <v>133628</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>639227</v>
+        <v>173032</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>1267677</v>
+        <v>265734</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>1249079</v>
+        <v>366253</v>
       </c>
     </row>
     <row r="14">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>600314</v>
+        <v>111273</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>581077</v>
+        <v>167144</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>622458</v>
+        <v>113322</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>613651</v>
+        <v>151427</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1233473</v>
+        <v>236448</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1213098</v>
+        <v>329412</v>
       </c>
     </row>
     <row r="15">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>644800</v>
+        <v>155759</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>635929</v>
+        <v>221996</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>664016</v>
+        <v>154880</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>660832</v>
+        <v>198608</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1296963</v>
+        <v>299938</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1285920</v>
+        <v>402234</v>
       </c>
     </row>
     <row r="16">
@@ -1463,22 +1463,22 @@
         </is>
       </c>
       <c r="C16" s="6" t="n">
-        <v>771</v>
+        <v>148</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>726</v>
+        <v>278</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>829</v>
+        <v>123</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>1228</v>
+        <v>327</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>1600</v>
+        <v>271</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>1954</v>
+        <v>605</v>
       </c>
     </row>
     <row r="17">
@@ -1489,22 +1489,22 @@
         </is>
       </c>
       <c r="C17" s="6" t="n">
-        <v>776002</v>
+        <v>148677</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>690762</v>
+        <v>297165</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>907292</v>
+        <v>126382</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>848381</v>
+        <v>265936</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1683293</v>
+        <v>275059</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1539142</v>
+        <v>563101</v>
       </c>
     </row>
     <row r="18">
@@ -1515,22 +1515,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>752257</v>
+        <v>127283</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>654431</v>
+        <v>267909</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>884169</v>
+        <v>106603</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>820751</v>
+        <v>238830</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1648587</v>
+        <v>246899</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1497879</v>
+        <v>520028</v>
       </c>
     </row>
     <row r="19">
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>797396</v>
+        <v>172422</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>720018</v>
+        <v>333496</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>927071</v>
+        <v>149505</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>875487</v>
+        <v>293566</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>1711453</v>
+        <v>309765</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1582215</v>
+        <v>604364</v>
       </c>
     </row>
     <row r="20">
@@ -1571,22 +1571,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>2712</v>
+        <v>497</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>2471</v>
+        <v>900</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>2860</v>
+        <v>460</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>4244</v>
+        <v>1109</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>5572</v>
+        <v>957</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>6715</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="21">
@@ -1597,22 +1597,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2844806</v>
+        <v>526300</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2521004</v>
+        <v>1006603</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3054877</v>
+        <v>467390</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2844420</v>
+        <v>883558</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>5899683</v>
+        <v>993690</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>5365424</v>
+        <v>1890161</v>
       </c>
     </row>
     <row r="22">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2798135</v>
+        <v>486108</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2457542</v>
+        <v>946519</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>3010236</v>
+        <v>429208</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2796444</v>
+        <v>833786</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>5837310</v>
+        <v>932520</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>5287182</v>
+        <v>1813076</v>
       </c>
     </row>
     <row r="23">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2884998</v>
+        <v>572971</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2581088</v>
+        <v>1070065</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>3093059</v>
+        <v>512031</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>2894192</v>
+        <v>931534</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>5960853</v>
+        <v>1056063</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>5442509</v>
+        <v>1968403</v>
       </c>
     </row>
     <row r="24">

--- a/data/trans_dic/P36BPD07_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD07_R-Habitat-trans_dic.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consume menos de una bebida azucarada por día (tasa de respuesta: 99,64%)</t>
+          <t>Población que consume al menos una bebida azucarada por día (tasa de respuesta: 99,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1060,7 +1060,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consume menos de una bebida azucarada por día (tasa de respuesta: 99,64%)</t>
+          <t>Población que consume al menos una bebida azucarada por día (tasa de respuesta: 99,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P36BPD07_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD07_R-Habitat-trans_dic.xlsx
@@ -618,7 +618,7 @@
         <v>0.103025746593592</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.198774360123171</v>
+        <v>0.1987743601231711</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.103811008372741</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07854321882397571</v>
+        <v>0.08133574615269457</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.216639835899342</v>
+        <v>0.2162590224118766</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.08088187908580478</v>
+        <v>0.07953192513597603</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1752947151279058</v>
+        <v>0.1720921605374805</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.08800671553388699</v>
+        <v>0.08661656713498508</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2024501011905036</v>
+        <v>0.202134013157967</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1276607083197904</v>
+        <v>0.1312082457921631</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.290913199859904</v>
+        <v>0.2886669733050299</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1277892174104151</v>
+        <v>0.1272218394633809</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2284553393129089</v>
+        <v>0.2258371841335698</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1222326469525361</v>
+        <v>0.121551398143372</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2465071579416294</v>
+        <v>0.2464637887246019</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.149600157116195</v>
+        <v>0.1481732308720135</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2905630930602925</v>
+        <v>0.2962645460623343</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1120719477190296</v>
+        <v>0.1138844769138494</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2558961319379084</v>
+        <v>0.2546575806744004</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1345736538575171</v>
+        <v>0.1357896933864164</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2822811086030594</v>
+        <v>0.2838531209530668</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1963333438334384</v>
+        <v>0.1971442888547316</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3570290429873606</v>
+        <v>0.3629745764766325</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1555330248971214</v>
+        <v>0.156002672519913</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3069412614246501</v>
+        <v>0.3054209021730216</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1674140061673617</v>
+        <v>0.1686077214801195</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3251786894061754</v>
+        <v>0.3264029816684575</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +776,7 @@
         <v>0.1747267299360527</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.2406016316212895</v>
+        <v>0.2406016316212896</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.1719042224144249</v>
@@ -788,7 +788,7 @@
         <v>0.1732959050208824</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.2267351539347753</v>
+        <v>0.2267351539347754</v>
       </c>
     </row>
     <row r="11">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1471729149113669</v>
+        <v>0.1469016022777391</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2081300286608088</v>
+        <v>0.2080337105245943</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1457824285578764</v>
+        <v>0.1444803805425498</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1864271006385394</v>
+        <v>0.1876676609990044</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1541970918596428</v>
+        <v>0.1545476036302865</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2039284115152481</v>
+        <v>0.2054844446347651</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2060103986233214</v>
+        <v>0.2061943730403099</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2764325492505583</v>
+        <v>0.2803767093114736</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1992446959337471</v>
+        <v>0.2013051106732287</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2445132650141238</v>
+        <v>0.2423756325851958</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1956016364431924</v>
+        <v>0.1923099020552556</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2490099368614068</v>
+        <v>0.2479693881234299</v>
       </c>
     </row>
     <row r="13">
@@ -858,7 +858,7 @@
         <v>0.1607879959128801</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.3007967708901064</v>
+        <v>0.3007967708901065</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.1222647598016518</v>
@@ -870,7 +870,7 @@
         <v>0.1404543473178306</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.2678572439137894</v>
+        <v>0.2678572439137893</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1376514232234942</v>
+        <v>0.1387383139128064</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.271183120833891</v>
+        <v>0.2703578666152698</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1031304695007545</v>
+        <v>0.1052539380343722</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2143283478785646</v>
+        <v>0.2145935846378283</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1260748524341096</v>
+        <v>0.1259496404904281</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2473680599030617</v>
+        <v>0.2490584498318265</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1864665355214546</v>
+        <v>0.1846701730235605</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3375712245967565</v>
+        <v>0.3325577971854719</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1446345932687023</v>
+        <v>0.1447387299177594</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2634497030619133</v>
+        <v>0.2613869523091791</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1581764283831415</v>
+        <v>0.1576686608754087</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2874854815718836</v>
+        <v>0.2887175044746366</v>
       </c>
     </row>
     <row r="16">
@@ -946,7 +946,7 @@
         <v>0.1326957262605824</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.2370072405690868</v>
+        <v>0.2370072405690869</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1441514243933832</v>
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1441984319328135</v>
+        <v>0.1451792420774556</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2683177184577972</v>
+        <v>0.2684676746591798</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1218555774801523</v>
+        <v>0.1216447320098936</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2236564150196443</v>
+        <v>0.223871296456766</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.135277739442386</v>
+        <v>0.1347857076780693</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2498869857498086</v>
+        <v>0.2503173368161992</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1699652612304881</v>
+        <v>0.1698358363039179</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3033402939690669</v>
+        <v>0.3034880772338439</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1453696316259617</v>
+        <v>0.1446367205389713</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2498763709325044</v>
+        <v>0.2510821639430623</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1531997460952944</v>
+        <v>0.1520191913702149</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2712948413537006</v>
+        <v>0.2712698007998406</v>
       </c>
     </row>
     <row r="19">
@@ -1191,22 +1191,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>52734</v>
+        <v>54609</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>149168</v>
+        <v>148906</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>54057</v>
+        <v>53155</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>128325</v>
+        <v>125981</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>117907</v>
+        <v>116044</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>287603</v>
+        <v>287154</v>
       </c>
     </row>
     <row r="7">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>85712</v>
+        <v>88094</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>200310</v>
+        <v>198763</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>85407</v>
+        <v>85028</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>167242</v>
+        <v>165325</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>163761</v>
+        <v>162848</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>350191</v>
+        <v>350129</v>
       </c>
     </row>
     <row r="8">
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>152435</v>
+        <v>150981</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>304525</v>
+        <v>310501</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>116881</v>
+        <v>118772</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>273642</v>
+        <v>272317</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>277472</v>
+        <v>279980</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>597702</v>
+        <v>601031</v>
       </c>
     </row>
     <row r="11">
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>200054</v>
+        <v>200880</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>374185</v>
+        <v>380416</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>162207</v>
+        <v>162697</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>328227</v>
+        <v>326601</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>345185</v>
+        <v>347646</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>688533</v>
+        <v>691126</v>
       </c>
     </row>
     <row r="12">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>111273</v>
+        <v>111068</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>167144</v>
+        <v>167066</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>113322</v>
+        <v>112310</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>151427</v>
+        <v>152435</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>236448</v>
+        <v>236985</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>329412</v>
+        <v>331926</v>
       </c>
     </row>
     <row r="15">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>155759</v>
+        <v>155898</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>221996</v>
+        <v>225163</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>154880</v>
+        <v>156482</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>198608</v>
+        <v>196872</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>299938</v>
+        <v>294890</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>402234</v>
+        <v>400553</v>
       </c>
     </row>
     <row r="16">
@@ -1515,22 +1515,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>127283</v>
+        <v>128288</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>267909</v>
+        <v>267094</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>106603</v>
+        <v>108798</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>238830</v>
+        <v>239125</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>246899</v>
+        <v>246654</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>520028</v>
+        <v>523581</v>
       </c>
     </row>
     <row r="19">
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>172422</v>
+        <v>170761</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>333496</v>
+        <v>328543</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>149505</v>
+        <v>149613</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>293566</v>
+        <v>291268</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>309765</v>
+        <v>308771</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>604364</v>
+        <v>606954</v>
       </c>
     </row>
     <row r="20">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>486108</v>
+        <v>489415</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>946519</v>
+        <v>947048</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>429208</v>
+        <v>428465</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>833786</v>
+        <v>834587</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>932520</v>
+        <v>929128</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1813076</v>
+        <v>1816199</v>
       </c>
     </row>
     <row r="23">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>572971</v>
+        <v>572535</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1070065</v>
+        <v>1070587</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>512031</v>
+        <v>509449</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>931534</v>
+        <v>936029</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1056063</v>
+        <v>1047925</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1968403</v>
+        <v>1968221</v>
       </c>
     </row>
     <row r="24">
